--- a/data/res_4.xlsx
+++ b/data/res_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2983346f4b507dae/바탕 화면/Work/FinalProject_JBNU_ISE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_953A7CDE82E9EDDBFE160B641B5EF5E9502D6CD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741256F5-8853-4FB5-ABA6-C849411C4B33}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_953A7CDE82E9EDDBFE160B641B5EF5E9502D6CD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786EA7FA-5BB4-4E82-83FD-CCF1518D65D5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="529">
   <si>
     <t>name</t>
   </si>
@@ -1611,7 +1611,18 @@
     <t>후보지22</t>
   </si>
   <si>
-    <t>후보지23</t>
+    <t>청연루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 전주시 완산구 동서학동 940-2</t>
+  </si>
+  <si>
+    <t>어진박물관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 전주시 완산구 풍남동3가 104-1</t>
   </si>
 </sst>
 </file>
@@ -2058,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C272" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:A289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7368,325 +7379,417 @@
         <v>495</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
       <c r="B266" t="s">
+        <v>525</v>
+      </c>
+      <c r="C266" t="s">
+        <v>526</v>
+      </c>
+      <c r="D266">
+        <v>35.810691900000002</v>
+      </c>
+      <c r="E266">
+        <v>127.15449</v>
+      </c>
+      <c r="F266" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>527</v>
+      </c>
+      <c r="C267" t="s">
+        <v>528</v>
+      </c>
+      <c r="D267" s="2">
+        <v>35.816164399999998</v>
+      </c>
+      <c r="E267" s="2">
+        <v>127.1493517</v>
+      </c>
+      <c r="F267" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
         <v>505</v>
       </c>
-      <c r="D266">
+      <c r="D268">
         <v>35.818007999999999</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E268" s="3">
         <v>127.15391200000001</v>
-      </c>
-      <c r="F266" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B267" t="s">
-        <v>506</v>
-      </c>
-      <c r="D267">
-        <v>35.817633999999998</v>
-      </c>
-      <c r="E267" s="3">
-        <v>127.152292</v>
-      </c>
-      <c r="F267" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B268" t="s">
-        <v>504</v>
-      </c>
-      <c r="D268">
-        <v>35.817231</v>
-      </c>
-      <c r="E268" s="3">
-        <v>127.1507</v>
       </c>
       <c r="F268" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
       <c r="B269" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D269">
-        <v>35.816704000000001</v>
+        <v>35.817633999999998</v>
       </c>
       <c r="E269" s="3">
-        <v>127.149154</v>
+        <v>127.152292</v>
       </c>
       <c r="F269" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
       <c r="B270" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D270">
-        <v>35.815412000000002</v>
-      </c>
-      <c r="E270">
-        <v>127.148849</v>
+        <v>35.817231</v>
+      </c>
+      <c r="E270" s="3">
+        <v>127.1507</v>
       </c>
       <c r="F270" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
       <c r="B271" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D271">
-        <v>35.814037999999996</v>
-      </c>
-      <c r="E271">
-        <v>127.149151</v>
+        <v>35.816704000000001</v>
+      </c>
+      <c r="E271" s="3">
+        <v>127.149154</v>
       </c>
       <c r="F271" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
       <c r="B272" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D272">
-        <v>35.814193000000003</v>
+        <v>35.815412000000002</v>
       </c>
       <c r="E272">
-        <v>127.150639</v>
+        <v>127.148849</v>
       </c>
       <c r="F272" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
       <c r="B273" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D273">
-        <v>35.813446999999996</v>
+        <v>35.814037999999996</v>
       </c>
       <c r="E273">
-        <v>127.151297</v>
+        <v>127.149151</v>
       </c>
       <c r="F273" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
       <c r="B274" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D274">
-        <v>35.812085000000003</v>
+        <v>35.814193000000003</v>
       </c>
       <c r="E274">
-        <v>127.151538</v>
+        <v>127.150639</v>
       </c>
       <c r="F274" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
       <c r="B275" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D275">
-        <v>35.810926000000002</v>
+        <v>35.813446999999996</v>
       </c>
       <c r="E275">
-        <v>127.151808</v>
+        <v>127.151297</v>
       </c>
       <c r="F275" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
       <c r="B276" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D276">
-        <v>35.811090999999998</v>
+        <v>35.812085000000003</v>
       </c>
       <c r="E276">
-        <v>127.153401</v>
+        <v>127.151538</v>
       </c>
       <c r="F276" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
       <c r="B277" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D277">
-        <v>35.811273999999997</v>
+        <v>35.810926000000002</v>
       </c>
       <c r="E277">
-        <v>127.15503</v>
+        <v>127.151808</v>
       </c>
       <c r="F277" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
       <c r="B278" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D278">
-        <v>35.811461999999999</v>
+        <v>35.811090999999998</v>
       </c>
       <c r="E278">
-        <v>127.156769</v>
+        <v>127.153401</v>
       </c>
       <c r="F278" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
       <c r="B279" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D279">
-        <v>35.811790000000002</v>
+        <v>35.811273999999997</v>
       </c>
       <c r="E279">
-        <v>127.15817199999999</v>
+        <v>127.15503</v>
       </c>
       <c r="F279" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
       <c r="B280" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D280">
-        <v>35.812049999999999</v>
+        <v>35.811461999999999</v>
       </c>
       <c r="E280">
-        <v>127.156853</v>
+        <v>127.156769</v>
       </c>
       <c r="F280" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
       <c r="B281" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D281">
-        <v>35.811956000000002</v>
+        <v>35.811790000000002</v>
       </c>
       <c r="E281">
-        <v>127.15520600000001</v>
+        <v>127.15817199999999</v>
       </c>
       <c r="F281" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
       <c r="B282" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D282">
-        <v>35.811850999999997</v>
+        <v>35.812049999999999</v>
       </c>
       <c r="E282">
-        <v>127.153581</v>
+        <v>127.156853</v>
       </c>
       <c r="F282" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
       <c r="B283" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D283">
-        <v>35.812753999999998</v>
+        <v>35.811956000000002</v>
       </c>
       <c r="E283">
-        <v>127.152912</v>
+        <v>127.15520600000001</v>
       </c>
       <c r="F283" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
       <c r="B284" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D284">
-        <v>35.814109000000002</v>
+        <v>35.811850999999997</v>
       </c>
       <c r="E284">
-        <v>127.15269499999999</v>
+        <v>127.153581</v>
       </c>
       <c r="F284" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
       <c r="B285" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D285">
-        <v>35.814923</v>
+        <v>35.812753999999998</v>
       </c>
       <c r="E285">
-        <v>127.153648</v>
+        <v>127.152912</v>
       </c>
       <c r="F285" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
       <c r="B286" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D286">
-        <v>35.815911999999997</v>
+        <v>35.814109000000002</v>
       </c>
       <c r="E286">
-        <v>127.15396699999999</v>
+        <v>127.15269499999999</v>
       </c>
       <c r="F286" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
       <c r="B287" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D287">
-        <v>35.817324999999997</v>
+        <v>35.814923</v>
       </c>
       <c r="E287">
-        <v>127.153682</v>
+        <v>127.153648</v>
       </c>
       <c r="F287" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
       <c r="B288" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D288">
-        <v>35.818007999999999</v>
+        <v>35.815911999999997</v>
       </c>
       <c r="E288">
-        <v>127.15391200000001</v>
+        <v>127.15396699999999</v>
       </c>
       <c r="F288" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>524</v>
+      </c>
+      <c r="D289">
+        <v>35.817324999999997</v>
+      </c>
+      <c r="E289">
+        <v>127.153682</v>
+      </c>
+      <c r="F289" t="s">
         <v>503</v>
       </c>
     </row>
